--- a/ig/sd-correction-slicing-condition/all-profiles.xlsx
+++ b/ig/sd-correction-slicing-condition/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7851" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8085" uniqueCount="781">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:12:56+00:00</t>
+    <t>2023-10-19T14:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1547,333 +1547,329 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t>Slicing pour les différents identifiants de l'essai clinique</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary</t>
+  </si>
+  <si>
+    <t>idPrimary</t>
+  </si>
+  <si>
+    <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.use</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idPrimary.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary</t>
+  </si>
+  <si>
+    <t>idSecondary</t>
+  </si>
+  <si>
+    <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.use</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.value</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.period</t>
+  </si>
+  <si>
+    <t>ResearchStudy.identifier:idSecondary.assigner</t>
+  </si>
+  <si>
+    <t>ResearchStudy.title</t>
+  </si>
+  <si>
+    <t>Nom scientifique de l'étude / Scientific Title</t>
+  </si>
+  <si>
+    <t>A short, descriptive user-friendly label for the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Steps followed in executing study</t>
+  </si>
+  <si>
+    <t>The set of steps expected to be performed as part of the execution of the study.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.partOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">container
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ResearchStudy)
+</t>
+  </si>
+  <si>
+    <t>Part of larger study</t>
+  </si>
+  <si>
+    <t>A larger research study of which this particular study is a component or step.</t>
+  </si>
+  <si>
+    <t>Allows breaking a study into components (e.g. by study site) each with their own PI, status, enrollment, etc.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.status</t>
+  </si>
+  <si>
+    <t>Statut de l'essai / Study Status</t>
+  </si>
+  <si>
+    <t>The current state of the study.</t>
+  </si>
+  <si>
+    <t>Codes that convey the current status of the research study.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-status|4.0.1</t>
+  </si>
+  <si>
+    <t>ResearchStudy.primaryPurposeType</t>
+  </si>
+  <si>
+    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
+  </si>
+  <si>
+    <t>The type of study based upon the intent of the study's activities. A classification of the intent of the study.</t>
+  </si>
+  <si>
+    <t>Codes for the main intent of the study.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/research-study-prim-purp-type</t>
+  </si>
+  <si>
+    <t>ResearchStudy.phase</t>
+  </si>
+  <si>
+    <t>Phase de l'essai / Study type : phase</t>
+  </si>
+  <si>
+    <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-phase-vs</t>
+  </si>
+  <si>
+    <t>ResearchStudy.category</t>
+  </si>
+  <si>
+    <t>Type d'essai  / Study type : type of study</t>
+  </si>
+  <si>
+    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-category-vs</t>
+  </si>
+  <si>
+    <t>ResearchStudy.focus</t>
+  </si>
+  <si>
+    <t>Drugs, devices, etc. under study</t>
+  </si>
+  <si>
+    <t>The medication(s), food(s), therapy(ies), device(s) or other concerns or interventions that the study is seeking to gain more information about.</t>
+  </si>
+  <si>
+    <t>Codes for medications, devices and other interventions.</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition</t>
+  </si>
+  <si>
+    <t>Sujet concerné /  Problem(s) Studied exemple code MedDRA</t>
+  </si>
+  <si>
+    <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
+  </si>
+  <si>
+    <t>Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:use}
 </t>
   </si>
   <si>
-    <t>Slicing pour les différents identifiants de l'essai clinique</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary</t>
-  </si>
-  <si>
-    <t>idPrimary</t>
-  </si>
-  <si>
-    <t>Identifiant primaire de l'essai clinique / Primary Registry and Trial Identifying Number</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.use</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.period</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.period</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idPrimary.assigner</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier.assigner</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary</t>
-  </si>
-  <si>
-    <t>idSecondary</t>
-  </si>
-  <si>
-    <t>identifiants secondaires / Secondary Identifying Numbers (e.g., protocol number) if available.  Also include other trial registries that have issued an identifying number to this trial. There is no limit on the number of Secondary identifying numbers that can be provided.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.id</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.extension</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.use</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.system</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.value</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.period</t>
-  </si>
-  <si>
-    <t>ResearchStudy.identifier:idSecondary.assigner</t>
-  </si>
-  <si>
-    <t>ResearchStudy.title</t>
-  </si>
-  <si>
-    <t>Nom scientifique de l'étude / Scientific Title</t>
-  </si>
-  <si>
-    <t>A short, descriptive user-friendly label for the study.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Steps followed in executing study</t>
-  </si>
-  <si>
-    <t>The set of steps expected to be performed as part of the execution of the study.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.partOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">container
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ResearchStudy)
-</t>
-  </si>
-  <si>
-    <t>Part of larger study</t>
-  </si>
-  <si>
-    <t>A larger research study of which this particular study is a component or step.</t>
-  </si>
-  <si>
-    <t>Allows breaking a study into components (e.g. by study site) each with their own PI, status, enrollment, etc.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.status</t>
-  </si>
-  <si>
-    <t>Statut de l'essai / Study Status</t>
-  </si>
-  <si>
-    <t>The current state of the study.</t>
-  </si>
-  <si>
-    <t>Codes that convey the current status of the research study.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-status|4.0.1</t>
-  </si>
-  <si>
-    <t>ResearchStudy.primaryPurposeType</t>
-  </si>
-  <si>
-    <t>treatment | prevention | diagnostic | supportive-care | screening | health-services-research | basic-science | device-feasibility</t>
-  </si>
-  <si>
-    <t>The type of study based upon the intent of the study's activities. A classification of the intent of the study.</t>
-  </si>
-  <si>
-    <t>Codes for the main intent of the study.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/research-study-prim-purp-type</t>
-  </si>
-  <si>
-    <t>ResearchStudy.phase</t>
-  </si>
-  <si>
-    <t>Phase de l'essai / Study type : phase</t>
-  </si>
-  <si>
-    <t>The stage in the progression of a therapy from initial experimental use in humans in clinical trials to post-market evaluation.</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-study-phase-vs</t>
-  </si>
-  <si>
-    <t>ResearchStudy.category</t>
-  </si>
-  <si>
-    <t>Type d'essai  / Study type : type of study</t>
-  </si>
-  <si>
-    <t>Codes categorizing the type of study such as investigational vs. observational, type of blinding, type of randomization, safety vs. efficacy, etc.</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/eclaire/ValueSet/eclaire-category-vs</t>
-  </si>
-  <si>
-    <t>ResearchStudy.focus</t>
-  </si>
-  <si>
-    <t>Drugs, devices, etc. under study</t>
-  </si>
-  <si>
-    <t>The medication(s), food(s), therapy(ies), device(s) or other concerns or interventions that the study is seeking to gain more information about.</t>
-  </si>
-  <si>
-    <t>Codes for medications, devices and other interventions.</t>
-  </si>
-  <si>
-    <t>ResearchStudy.condition</t>
-  </si>
-  <si>
-    <t>Sujet concerné /  Problem(s) Studied exemple code MedDRA</t>
-  </si>
-  <si>
-    <t>The condition that is the focus of the study.  For example, In a study to examine risk factors for Lupus, might have as an inclusion criterion "healthy volunteer", but the target condition code would be a Lupus SNOMED code.</t>
-  </si>
-  <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:id}
-</t>
-  </si>
-  <si>
-    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied</t>
+    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel</t>
   </si>
   <si>
     <t>ResearchStudy.condition:medDRACondition</t>
@@ -1919,6 +1915,117 @@
   </si>
   <si>
     <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.id</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.extension</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/mdr</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition:medDRACondition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>ResearchStudy.condition.coding.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
   </si>
   <si>
     <t>ResearchStudy.condition:medDRACondition.text</t>
@@ -3902,7 +4009,7 @@
         <v>4</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>735</v>
+        <v>771</v>
       </c>
     </row>
     <row r="190">
@@ -3918,7 +4025,7 @@
         <v>8</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>736</v>
+        <v>772</v>
       </c>
     </row>
     <row r="192">
@@ -4062,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>738</v>
+        <v>774</v>
       </c>
     </row>
     <row r="211">
@@ -4078,7 +4185,7 @@
         <v>8</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>739</v>
+        <v>775</v>
       </c>
     </row>
     <row r="213">
@@ -4222,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>740</v>
+        <v>776</v>
       </c>
     </row>
     <row r="232">
@@ -4238,7 +4345,7 @@
         <v>8</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>741</v>
+        <v>777</v>
       </c>
     </row>
     <row r="234">
@@ -4358,7 +4465,7 @@
         <v>36</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>742</v>
+        <v>778</v>
       </c>
     </row>
     <row r="250">
@@ -4382,7 +4489,7 @@
         <v>4</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>743</v>
+        <v>779</v>
       </c>
     </row>
     <row r="253">
@@ -4398,7 +4505,7 @@
         <v>8</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>744</v>
+        <v>780</v>
       </c>
     </row>
     <row r="255">
@@ -4528,7 +4635,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK224"/>
+  <dimension ref="A1:AK231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4538,8 +4645,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="25.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.40234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="42.98046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="60.55078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="43.16796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="25.26171875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -4555,7 +4662,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.30078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="41.23046875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
@@ -4565,7 +4672,7 @@
     <col min="27" max="27" width="75.2734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="84.87890625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="244.3984375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -18582,10 +18689,10 @@
         <v>38</v>
       </c>
       <c r="AC134" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD134" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AE134" t="s" s="2">
         <v>38</v>
@@ -18614,13 +18721,13 @@
         <v>449</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>488</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E135" t="s" s="2">
         <v>38</v>
@@ -18645,7 +18752,7 @@
         <v>146</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>490</v>
@@ -18721,10 +18828,10 @@
         <v>449</v>
       </c>
       <c r="B136" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C136" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18824,10 +18931,10 @@
         <v>449</v>
       </c>
       <c r="B137" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C137" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18929,10 +19036,10 @@
         <v>449</v>
       </c>
       <c r="B138" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C138" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -18940,7 +19047,7 @@
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>45</v>
@@ -18958,16 +19065,16 @@
         <v>112</v>
       </c>
       <c r="M138" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="O138" t="s" s="2">
+      <c r="P138" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="P138" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>38</v>
@@ -18977,7 +19084,7 @@
         <v>38</v>
       </c>
       <c r="T138" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U138" t="s" s="2">
         <v>38</v>
@@ -18995,28 +19102,28 @@
         <v>81</v>
       </c>
       <c r="Z138" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AA138" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AA138" t="s" s="2">
+      <c r="AB138" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG138" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
@@ -19036,10 +19143,10 @@
         <v>449</v>
       </c>
       <c r="B139" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C139" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="C139" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19065,16 +19172,16 @@
         <v>80</v>
       </c>
       <c r="M139" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N139" t="s" s="2">
+      <c r="O139" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="O139" t="s" s="2">
+      <c r="P139" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="P139" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="Q139" t="s" s="2">
         <v>38</v>
@@ -19102,28 +19209,28 @@
         <v>210</v>
       </c>
       <c r="Z139" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA139" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AA139" t="s" s="2">
+      <c r="AB139" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG139" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>39</v>
@@ -19143,10 +19250,10 @@
         <v>449</v>
       </c>
       <c r="B140" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="C140" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="C140" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19172,16 +19279,16 @@
         <v>58</v>
       </c>
       <c r="M140" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N140" t="s" s="2">
+      <c r="O140" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="O140" t="s" s="2">
+      <c r="P140" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="P140" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -19194,43 +19301,43 @@
         <v>38</v>
       </c>
       <c r="U140" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG140" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -19250,10 +19357,10 @@
         <v>449</v>
       </c>
       <c r="B141" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C141" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="C141" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19279,13 +19386,13 @@
         <v>46</v>
       </c>
       <c r="M141" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
@@ -19299,43 +19406,43 @@
         <v>38</v>
       </c>
       <c r="U141" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG141" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -19355,10 +19462,10 @@
         <v>449</v>
       </c>
       <c r="B142" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C142" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="C142" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19384,10 +19491,10 @@
         <v>225</v>
       </c>
       <c r="M142" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N142" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>228</v>
@@ -19440,7 +19547,7 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
@@ -19460,10 +19567,10 @@
         <v>449</v>
       </c>
       <c r="B143" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C143" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="C143" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19489,13 +19596,13 @@
         <v>405</v>
       </c>
       <c r="M143" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N143" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="N143" t="s" s="2">
+      <c r="O143" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
@@ -19545,7 +19652,7 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
@@ -19565,13 +19672,13 @@
         <v>449</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>488</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E144" t="s" s="2">
         <v>38</v>
@@ -19596,7 +19703,7 @@
         <v>146</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>490</v>
@@ -19672,10 +19779,10 @@
         <v>449</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19775,10 +19882,10 @@
         <v>449</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19880,10 +19987,10 @@
         <v>449</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19891,7 +19998,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>45</v>
@@ -19909,16 +20016,16 @@
         <v>112</v>
       </c>
       <c r="M147" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="N147" t="s" s="2">
+      <c r="O147" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="O147" t="s" s="2">
+      <c r="P147" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="P147" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>38</v>
@@ -19928,7 +20035,7 @@
         <v>38</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>38</v>
@@ -19946,28 +20053,28 @@
         <v>81</v>
       </c>
       <c r="Z147" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AA147" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AA147" t="s" s="2">
+      <c r="AB147" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG147" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
@@ -19987,10 +20094,10 @@
         <v>449</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20016,16 +20123,16 @@
         <v>80</v>
       </c>
       <c r="M148" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N148" t="s" s="2">
+      <c r="O148" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="O148" t="s" s="2">
+      <c r="P148" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="Q148" t="s" s="2">
         <v>38</v>
@@ -20053,28 +20160,28 @@
         <v>210</v>
       </c>
       <c r="Z148" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA148" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AA148" t="s" s="2">
+      <c r="AB148" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG148" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
@@ -20094,10 +20201,10 @@
         <v>449</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20123,16 +20230,16 @@
         <v>58</v>
       </c>
       <c r="M149" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="N149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="O149" t="s" s="2">
+      <c r="P149" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="P149" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="Q149" t="s" s="2">
         <v>38</v>
@@ -20145,43 +20252,43 @@
         <v>38</v>
       </c>
       <c r="U149" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG149" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
@@ -20201,10 +20308,10 @@
         <v>449</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20230,13 +20337,13 @@
         <v>46</v>
       </c>
       <c r="M150" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>530</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>531</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
@@ -20250,43 +20357,43 @@
         <v>38</v>
       </c>
       <c r="U150" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG150" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>534</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -20306,10 +20413,10 @@
         <v>449</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20335,10 +20442,10 @@
         <v>225</v>
       </c>
       <c r="M151" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>537</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>538</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>228</v>
@@ -20391,7 +20498,7 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
@@ -20411,10 +20518,10 @@
         <v>449</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20440,13 +20547,13 @@
         <v>405</v>
       </c>
       <c r="M152" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N152" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="N152" t="s" s="2">
+      <c r="O152" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="O152" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
@@ -20496,7 +20603,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -20516,10 +20623,10 @@
         <v>449</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20545,10 +20652,10 @@
         <v>46</v>
       </c>
       <c r="M153" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N153" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="N153" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>177</v>
@@ -20601,7 +20708,7 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -20621,10 +20728,10 @@
         <v>449</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20647,13 +20754,13 @@
         <v>95</v>
       </c>
       <c r="L154" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M154" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M154" t="s" s="2">
+      <c r="N154" t="s" s="2">
         <v>563</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>564</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>241</v>
@@ -20706,7 +20813,7 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
@@ -20726,14 +20833,14 @@
         <v>449</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" t="s" s="2">
@@ -20752,19 +20859,19 @@
         <v>95</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>241</v>
       </c>
       <c r="P155" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>38</v>
@@ -20813,7 +20920,7 @@
         <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
@@ -20833,10 +20940,10 @@
         <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20862,10 +20969,10 @@
         <v>112</v>
       </c>
       <c r="M156" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N156" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>177</v>
@@ -20897,11 +21004,11 @@
         <v>81</v>
       </c>
       <c r="Z156" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AA156" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AA156" t="s" s="2">
-        <v>575</v>
-      </c>
       <c r="AB156" t="s" s="2">
         <v>38</v>
       </c>
@@ -20918,7 +21025,7 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>45</v>
@@ -20938,10 +21045,10 @@
         <v>449</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -20967,10 +21074,10 @@
         <v>80</v>
       </c>
       <c r="M157" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>208</v>
@@ -21002,11 +21109,11 @@
         <v>210</v>
       </c>
       <c r="Z157" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AA157" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="AA157" t="s" s="2">
-        <v>580</v>
-      </c>
       <c r="AB157" t="s" s="2">
         <v>38</v>
       </c>
@@ -21023,7 +21130,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -21043,10 +21150,10 @@
         <v>449</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21072,10 +21179,10 @@
         <v>80</v>
       </c>
       <c r="M158" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>582</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>583</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>208</v>
@@ -21108,7 +21215,7 @@
       </c>
       <c r="Z158" s="2"/>
       <c r="AA158" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>38</v>
@@ -21126,7 +21233,7 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
@@ -21146,10 +21253,10 @@
         <v>449</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21175,10 +21282,10 @@
         <v>80</v>
       </c>
       <c r="M159" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>208</v>
@@ -21211,7 +21318,7 @@
       </c>
       <c r="Z159" s="2"/>
       <c r="AA159" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>38</v>
@@ -21229,7 +21336,7 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
@@ -21249,10 +21356,10 @@
         <v>449</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21278,10 +21385,10 @@
         <v>80</v>
       </c>
       <c r="M160" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>208</v>
@@ -21313,7 +21420,7 @@
         <v>172</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>38</v>
@@ -21334,7 +21441,7 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
@@ -21354,10 +21461,10 @@
         <v>449</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21383,10 +21490,10 @@
         <v>80</v>
       </c>
       <c r="M161" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N161" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>208</v>
@@ -21418,19 +21525,19 @@
         <v>172</v>
       </c>
       <c r="Z161" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AA161" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AA161" t="s" s="2">
+      <c r="AB161" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC161" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="AB161" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC161" t="s" s="2">
+      <c r="AD161" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="AE161" t="s" s="2">
         <v>38</v>
@@ -21439,7 +21546,7 @@
         <v>55</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>39</v>
@@ -21459,13 +21566,13 @@
         <v>449</v>
       </c>
       <c r="B162" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="C162" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="D162" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="C162" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="D162" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="E162" t="s" s="2">
         <v>38</v>
@@ -21490,10 +21597,10 @@
         <v>80</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>208</v>
@@ -21525,11 +21632,11 @@
         <v>172</v>
       </c>
       <c r="Z162" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AA162" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AA162" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="AB162" t="s" s="2">
         <v>38</v>
       </c>
@@ -21546,7 +21653,7 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
@@ -21566,10 +21673,10 @@
         <v>449</v>
       </c>
       <c r="B163" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C163" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="C163" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
@@ -21577,7 +21684,7 @@
       </c>
       <c r="F163" s="2"/>
       <c r="G163" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H163" t="s" s="2">
         <v>45</v>
@@ -21610,7 +21717,7 @@
         <v>38</v>
       </c>
       <c r="T163" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="U163" t="s" s="2">
         <v>38</v>
@@ -21669,10 +21776,10 @@
         <v>449</v>
       </c>
       <c r="B164" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="C164" t="s" s="2">
         <v>606</v>
-      </c>
-      <c r="C164" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21774,10 +21881,10 @@
         <v>449</v>
       </c>
       <c r="B165" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C165" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="C165" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" t="s" s="2">
@@ -21803,16 +21910,16 @@
         <v>303</v>
       </c>
       <c r="M165" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="N165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="O165" t="s" s="2">
+      <c r="P165" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="P165" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="Q165" t="s" s="2">
         <v>38</v>
@@ -21861,7 +21968,7 @@
         <v>38</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>39</v>
@@ -21881,10 +21988,10 @@
         <v>449</v>
       </c>
       <c r="B166" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C166" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="C166" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
@@ -21904,23 +22011,19 @@
         <v>38</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L166" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>617</v>
+        <v>47</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="P166" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
       <c r="Q166" t="s" s="2">
         <v>38</v>
       </c>
@@ -21968,7 +22071,7 @@
         <v>38</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>621</v>
+        <v>49</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>39</v>
@@ -21977,10 +22080,10 @@
         <v>45</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167">
@@ -21988,16 +22091,14 @@
         <v>449</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="D167" t="s" s="2">
-        <v>623</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="F167" s="2"/>
       <c r="G167" t="s" s="2">
@@ -22007,25 +22108,25 @@
         <v>40</v>
       </c>
       <c r="I167" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>624</v>
+        <v>136</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>595</v>
+        <v>199</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>208</v>
+        <v>138</v>
       </c>
       <c r="P167" s="2"/>
       <c r="Q167" t="s" s="2">
@@ -22051,31 +22152,31 @@
         <v>38</v>
       </c>
       <c r="Y167" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="Z167" t="s" s="2">
-        <v>596</v>
+        <v>38</v>
       </c>
       <c r="AA167" t="s" s="2">
-        <v>597</v>
+        <v>38</v>
       </c>
       <c r="AB167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC167" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD167" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE167" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>593</v>
+        <v>56</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>39</v>
@@ -22087,7 +22188,7 @@
         <v>42</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168">
@@ -22095,10 +22196,10 @@
         <v>449</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" t="s" s="2">
@@ -22106,7 +22207,7 @@
       </c>
       <c r="F168" s="2"/>
       <c r="G168" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>45</v>
@@ -22118,19 +22219,23 @@
         <v>38</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>47</v>
+        <v>620</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
+        <v>621</v>
+      </c>
+      <c r="O168" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="P168" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="Q168" t="s" s="2">
         <v>38</v>
       </c>
@@ -22139,7 +22244,7 @@
         <v>38</v>
       </c>
       <c r="T168" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="U168" t="s" s="2">
         <v>38</v>
@@ -22178,7 +22283,7 @@
         <v>38</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>49</v>
+        <v>625</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>39</v>
@@ -22187,10 +22292,10 @@
         <v>45</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169">
@@ -22198,21 +22303,21 @@
         <v>449</v>
       </c>
       <c r="B169" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C169" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>607</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F169" s="2"/>
       <c r="G169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H169" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I169" t="s" s="2">
         <v>38</v>
@@ -22221,19 +22326,19 @@
         <v>38</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>136</v>
+        <v>628</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>199</v>
+        <v>629</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>138</v>
+        <v>630</v>
       </c>
       <c r="P169" s="2"/>
       <c r="Q169" t="s" s="2">
@@ -22271,31 +22376,31 @@
         <v>38</v>
       </c>
       <c r="AC169" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD169" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE169" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>56</v>
+        <v>631</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170">
@@ -22303,10 +22408,10 @@
         <v>449</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" t="s" s="2">
@@ -22317,7 +22422,7 @@
         <v>39</v>
       </c>
       <c r="H170" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I170" t="s" s="2">
         <v>38</v>
@@ -22329,19 +22434,19 @@
         <v>95</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>303</v>
+        <v>112</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>612</v>
+        <v>177</v>
       </c>
       <c r="P170" t="s" s="2">
-        <v>613</v>
+        <v>636</v>
       </c>
       <c r="Q170" t="s" s="2">
         <v>38</v>
@@ -22390,13 +22495,13 @@
         <v>38</v>
       </c>
       <c r="AG170" t="s" s="2">
-        <v>614</v>
+        <v>637</v>
       </c>
       <c r="AH170" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>42</v>
@@ -22410,10 +22515,10 @@
         <v>449</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" t="s" s="2">
@@ -22439,16 +22544,16 @@
         <v>46</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>619</v>
+        <v>177</v>
       </c>
       <c r="P171" t="s" s="2">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="Q171" t="s" s="2">
         <v>38</v>
@@ -22497,7 +22602,7 @@
         <v>38</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>621</v>
+        <v>643</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>39</v>
@@ -22517,10 +22622,10 @@
         <v>449</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22531,10 +22636,10 @@
         <v>39</v>
       </c>
       <c r="H172" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I172" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J172" t="s" s="2">
         <v>38</v>
@@ -22543,16 +22648,20 @@
         <v>95</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>631</v>
+        <v>151</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
+        <v>647</v>
+      </c>
+      <c r="O172" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="P172" t="s" s="2">
+        <v>649</v>
+      </c>
       <c r="Q172" t="s" s="2">
         <v>38</v>
       </c>
@@ -22600,13 +22709,13 @@
         <v>38</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>42</v>
@@ -22620,10 +22729,10 @@
         <v>449</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22643,19 +22752,23 @@
         <v>38</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L173" t="s" s="2">
         <v>46</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>47</v>
+        <v>653</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="O173" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="P173" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="Q173" t="s" s="2">
         <v>38</v>
       </c>
@@ -22703,7 +22816,7 @@
         <v>38</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>49</v>
+        <v>657</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>39</v>
@@ -22712,10 +22825,10 @@
         <v>45</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174">
@@ -22723,14 +22836,16 @@
         <v>449</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D174" s="2"/>
+        <v>592</v>
+      </c>
+      <c r="D174" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="E174" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" t="s" s="2">
@@ -22740,25 +22855,25 @@
         <v>40</v>
       </c>
       <c r="I174" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J174" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>136</v>
+        <v>660</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>199</v>
+        <v>594</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="P174" s="2"/>
       <c r="Q174" t="s" s="2">
@@ -22784,31 +22899,31 @@
         <v>38</v>
       </c>
       <c r="Y174" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>38</v>
+        <v>595</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>38</v>
+        <v>596</v>
       </c>
       <c r="AB174" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC174" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD174" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE174" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>56</v>
+        <v>592</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>39</v>
@@ -22820,7 +22935,7 @@
         <v>42</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175">
@@ -22828,14 +22943,12 @@
         <v>449</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>636</v>
+        <v>661</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D175" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
         <v>38</v>
       </c>
@@ -22847,7 +22960,7 @@
         <v>45</v>
       </c>
       <c r="I175" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J175" t="s" s="2">
         <v>38</v>
@@ -22856,13 +22969,13 @@
         <v>38</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>637</v>
+        <v>46</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>638</v>
+        <v>47</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -22874,7 +22987,7 @@
         <v>38</v>
       </c>
       <c r="T175" t="s" s="2">
-        <v>38</v>
+        <v>662</v>
       </c>
       <c r="U175" t="s" s="2">
         <v>38</v>
@@ -22913,19 +23026,19 @@
         <v>38</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176">
@@ -22933,26 +23046,24 @@
         <v>449</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>3</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H176" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I176" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J176" t="s" s="2">
         <v>38</v>
@@ -22961,15 +23072,17 @@
         <v>38</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>640</v>
+        <v>51</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>641</v>
+        <v>136</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="O176" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="O176" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="P176" s="2"/>
       <c r="Q176" t="s" s="2">
         <v>38</v>
@@ -23006,16 +23119,16 @@
         <v>38</v>
       </c>
       <c r="AC176" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD176" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE176" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>56</v>
@@ -23038,14 +23151,12 @@
         <v>449</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D177" t="s" s="2">
-        <v>67</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
         <v>38</v>
       </c>
@@ -23054,28 +23165,32 @@
         <v>39</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J177" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K177" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="J177" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K177" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="L177" t="s" s="2">
-        <v>643</v>
+        <v>303</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>644</v>
+        <v>609</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
+        <v>610</v>
+      </c>
+      <c r="O177" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="P177" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="Q177" t="s" s="2">
         <v>38</v>
       </c>
@@ -23123,7 +23238,7 @@
         <v>38</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>56</v>
+        <v>613</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>39</v>
@@ -23135,7 +23250,7 @@
         <v>42</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178">
@@ -23143,20 +23258,18 @@
         <v>449</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="D178" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>45</v>
@@ -23168,19 +23281,23 @@
         <v>38</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>646</v>
+        <v>46</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="N178" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
+        <v>654</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="P178" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="Q178" t="s" s="2">
         <v>38</v>
       </c>
@@ -23228,19 +23345,19 @@
         <v>38</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>56</v>
+        <v>657</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179">
@@ -23248,10 +23365,10 @@
         <v>449</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
@@ -23262,10 +23379,10 @@
         <v>39</v>
       </c>
       <c r="H179" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J179" t="s" s="2">
         <v>38</v>
@@ -23274,17 +23391,15 @@
         <v>95</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>46</v>
+        <v>667</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="O179" s="2"/>
       <c r="P179" s="2"/>
       <c r="Q179" t="s" s="2">
         <v>38</v>
@@ -23333,13 +23448,13 @@
         <v>38</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>42</v>
@@ -23353,10 +23468,10 @@
         <v>449</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
@@ -23367,7 +23482,7 @@
         <v>39</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>38</v>
@@ -23376,16 +23491,16 @@
         <v>38</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>654</v>
+        <v>47</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>655</v>
+        <v>48</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -23436,19 +23551,19 @@
         <v>38</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>656</v>
+        <v>49</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>336</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181">
@@ -23456,14 +23571,14 @@
         <v>449</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="F181" s="2"/>
       <c r="G181" t="s" s="2">
@@ -23482,16 +23597,16 @@
         <v>38</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>658</v>
+        <v>51</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>659</v>
+        <v>136</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>660</v>
+        <v>199</v>
       </c>
       <c r="O181" t="s" s="2">
-        <v>661</v>
+        <v>138</v>
       </c>
       <c r="P181" s="2"/>
       <c r="Q181" t="s" s="2">
@@ -23529,19 +23644,19 @@
         <v>38</v>
       </c>
       <c r="AC181" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD181" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE181" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>657</v>
+        <v>56</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>39</v>
@@ -23553,7 +23668,7 @@
         <v>42</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="182">
@@ -23561,12 +23676,14 @@
         <v>449</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="D182" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D182" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="E182" t="s" s="2">
         <v>38</v>
       </c>
@@ -23575,29 +23692,27 @@
         <v>39</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I182" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J182" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>80</v>
+        <v>673</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="O182" s="2"/>
       <c r="P182" s="2"/>
       <c r="Q182" t="s" s="2">
         <v>38</v>
@@ -23622,10 +23737,10 @@
         <v>38</v>
       </c>
       <c r="Y182" t="s" s="2">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="Z182" t="s" s="2">
-        <v>665</v>
+        <v>38</v>
       </c>
       <c r="AA182" t="s" s="2">
         <v>38</v>
@@ -23646,7 +23761,7 @@
         <v>38</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>662</v>
+        <v>56</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>39</v>
@@ -23658,7 +23773,7 @@
         <v>42</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="183">
@@ -23666,12 +23781,14 @@
         <v>449</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="D183" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>3</v>
+      </c>
       <c r="E183" t="s" s="2">
         <v>38</v>
       </c>
@@ -23680,7 +23797,7 @@
         <v>39</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I183" t="s" s="2">
         <v>95</v>
@@ -23689,20 +23806,18 @@
         <v>38</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>80</v>
+        <v>676</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O183" s="2"/>
       <c r="P183" s="2"/>
       <c r="Q183" t="s" s="2">
         <v>38</v>
@@ -23727,13 +23842,13 @@
         <v>38</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>210</v>
+        <v>38</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>669</v>
+        <v>38</v>
       </c>
       <c r="AA183" t="s" s="2">
-        <v>670</v>
+        <v>38</v>
       </c>
       <c r="AB183" t="s" s="2">
         <v>38</v>
@@ -23751,7 +23866,7 @@
         <v>38</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>666</v>
+        <v>56</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>39</v>
@@ -23763,7 +23878,7 @@
         <v>42</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="184">
@@ -23771,12 +23886,14 @@
         <v>449</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="D184" s="2"/>
+      <c r="D184" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="E184" t="s" s="2">
         <v>38</v>
       </c>
@@ -23797,17 +23914,15 @@
         <v>38</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>675</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="O184" s="2"/>
       <c r="P184" s="2"/>
       <c r="Q184" t="s" s="2">
         <v>38</v>
@@ -23856,19 +23971,19 @@
         <v>38</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>671</v>
+        <v>56</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="185">
@@ -23876,43 +23991,43 @@
         <v>449</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C185" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="D185" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="E185" t="s" s="2">
-        <v>677</v>
+        <v>38</v>
       </c>
       <c r="F185" s="2"/>
       <c r="G185" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H185" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J185" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>681</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="O185" s="2"/>
       <c r="P185" s="2"/>
       <c r="Q185" t="s" s="2">
         <v>38</v>
@@ -23961,7 +24076,7 @@
         <v>38</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>676</v>
+        <v>56</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>39</v>
@@ -23973,7 +24088,7 @@
         <v>42</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>190</v>
+        <v>43</v>
       </c>
     </row>
     <row r="186">
@@ -23981,14 +24096,14 @@
         <v>449</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
-        <v>683</v>
+        <v>38</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" t="s" s="2">
@@ -24007,16 +24122,16 @@
         <v>95</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>228</v>
+        <v>687</v>
       </c>
       <c r="P186" s="2"/>
       <c r="Q186" t="s" s="2">
@@ -24066,7 +24181,7 @@
         <v>38</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>39</v>
@@ -24078,7 +24193,7 @@
         <v>42</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>229</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187">
@@ -24086,10 +24201,10 @@
         <v>449</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" t="s" s="2">
@@ -24100,10 +24215,10 @@
         <v>39</v>
       </c>
       <c r="H187" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I187" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>38</v>
@@ -24112,17 +24227,15 @@
         <v>95</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="O187" s="2"/>
       <c r="P187" s="2"/>
       <c r="Q187" t="s" s="2">
         <v>38</v>
@@ -24171,19 +24284,19 @@
         <v>38</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>190</v>
+        <v>336</v>
       </c>
     </row>
     <row r="188">
@@ -24191,10 +24304,10 @@
         <v>449</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" t="s" s="2">
@@ -24205,7 +24318,7 @@
         <v>39</v>
       </c>
       <c r="H188" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I188" t="s" s="2">
         <v>38</v>
@@ -24214,19 +24327,19 @@
         <v>38</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="O188" t="s" s="2">
-        <v>241</v>
+        <v>697</v>
       </c>
       <c r="P188" s="2"/>
       <c r="Q188" t="s" s="2">
@@ -24276,19 +24389,19 @@
         <v>38</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>190</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189">
@@ -24296,10 +24409,10 @@
         <v>449</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
@@ -24313,7 +24426,7 @@
         <v>40</v>
       </c>
       <c r="I189" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="J189" t="s" s="2">
         <v>38</v>
@@ -24322,16 +24435,16 @@
         <v>95</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="N189" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="O189" t="s" s="2">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="P189" s="2"/>
       <c r="Q189" t="s" s="2">
@@ -24357,10 +24470,10 @@
         <v>38</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>38</v>
+        <v>701</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>38</v>
@@ -24381,7 +24494,7 @@
         <v>38</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>39</v>
@@ -24393,7 +24506,7 @@
         <v>42</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>190</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190">
@@ -24401,10 +24514,10 @@
         <v>449</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -24415,10 +24528,10 @@
         <v>39</v>
       </c>
       <c r="H190" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I190" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J190" t="s" s="2">
         <v>38</v>
@@ -24430,10 +24543,10 @@
         <v>80</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>208</v>
@@ -24462,13 +24575,13 @@
         <v>38</v>
       </c>
       <c r="Y190" t="s" s="2">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="Z190" t="s" s="2">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="AA190" t="s" s="2">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="AB190" t="s" s="2">
         <v>38</v>
@@ -24486,13 +24599,13 @@
         <v>38</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>42</v>
@@ -24506,10 +24619,10 @@
         <v>449</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24520,10 +24633,10 @@
         <v>39</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J191" t="s" s="2">
         <v>38</v>
@@ -24532,16 +24645,16 @@
         <v>38</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="P191" s="2"/>
       <c r="Q191" t="s" s="2">
@@ -24591,13 +24704,13 @@
         <v>38</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>42</v>
@@ -24611,14 +24724,14 @@
         <v>449</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>38</v>
+        <v>713</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" t="s" s="2">
@@ -24628,24 +24741,26 @@
         <v>40</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J192" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>192</v>
+        <v>714</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>707</v>
+        <v>715</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>708</v>
-      </c>
-      <c r="O192" s="2"/>
+        <v>716</v>
+      </c>
+      <c r="O192" t="s" s="2">
+        <v>717</v>
+      </c>
       <c r="P192" s="2"/>
       <c r="Q192" t="s" s="2">
         <v>38</v>
@@ -24694,7 +24809,7 @@
         <v>38</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>39</v>
@@ -24706,7 +24821,7 @@
         <v>42</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193">
@@ -24714,14 +24829,14 @@
         <v>449</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
-        <v>38</v>
+        <v>719</v>
       </c>
       <c r="F193" s="2"/>
       <c r="G193" t="s" s="2">
@@ -24737,18 +24852,20 @@
         <v>38</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>47</v>
+        <v>720</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O193" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P193" s="2"/>
       <c r="Q193" t="s" s="2">
         <v>38</v>
@@ -24797,7 +24914,7 @@
         <v>38</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>49</v>
+        <v>718</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>39</v>
@@ -24806,10 +24923,10 @@
         <v>45</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK193" t="s" s="2">
-        <v>38</v>
+        <v>229</v>
       </c>
     </row>
     <row r="194">
@@ -24817,42 +24934,42 @@
         <v>449</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>710</v>
+        <v>722</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H194" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I194" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J194" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>51</v>
+        <v>405</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>136</v>
+        <v>723</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>199</v>
+        <v>724</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="P194" s="2"/>
       <c r="Q194" t="s" s="2">
@@ -24890,31 +25007,31 @@
         <v>38</v>
       </c>
       <c r="AC194" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD194" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE194" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>56</v>
+        <v>722</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK194" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195">
@@ -24922,46 +25039,44 @@
         <v>449</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="C195" t="s" s="2">
-        <v>711</v>
+        <v>725</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="F195" s="2"/>
       <c r="G195" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H195" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I195" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="K195" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>51</v>
+        <v>726</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>202</v>
+        <v>727</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>203</v>
+        <v>728</v>
       </c>
       <c r="O195" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="P195" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="P195" s="2"/>
       <c r="Q195" t="s" s="2">
         <v>38</v>
       </c>
@@ -25009,19 +25124,19 @@
         <v>38</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>204</v>
+        <v>725</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>43</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196">
@@ -25029,10 +25144,10 @@
         <v>449</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" t="s" s="2">
@@ -25040,31 +25155,31 @@
       </c>
       <c r="F196" s="2"/>
       <c r="G196" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H196" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J196" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>713</v>
+        <v>730</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="O196" t="s" s="2">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="P196" s="2"/>
       <c r="Q196" t="s" s="2">
@@ -25114,19 +25229,19 @@
         <v>38</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK196" t="s" s="2">
-        <v>66</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197">
@@ -25134,10 +25249,10 @@
         <v>449</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" t="s" s="2">
@@ -25157,16 +25272,16 @@
         <v>38</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L197" t="s" s="2">
         <v>80</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>208</v>
@@ -25195,13 +25310,13 @@
         <v>38</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>38</v>
+        <v>735</v>
       </c>
       <c r="AA197" t="s" s="2">
-        <v>38</v>
+        <v>736</v>
       </c>
       <c r="AB197" t="s" s="2">
         <v>38</v>
@@ -25219,7 +25334,7 @@
         <v>38</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>39</v>
@@ -25239,10 +25354,10 @@
         <v>449</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" t="s" s="2">
@@ -25253,7 +25368,7 @@
         <v>39</v>
       </c>
       <c r="H198" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I198" t="s" s="2">
         <v>38</v>
@@ -25265,16 +25380,16 @@
         <v>38</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>46</v>
+        <v>738</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="O198" t="s" s="2">
-        <v>177</v>
+        <v>741</v>
       </c>
       <c r="P198" s="2"/>
       <c r="Q198" t="s" s="2">
@@ -25324,13 +25439,13 @@
         <v>38</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>42</v>
@@ -25344,10 +25459,10 @@
         <v>449</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
@@ -25373,10 +25488,10 @@
         <v>192</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -25427,7 +25542,7 @@
         <v>38</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>39</v>
@@ -25447,10 +25562,10 @@
         <v>449</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" t="s" s="2">
@@ -25550,10 +25665,10 @@
         <v>449</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" t="s" s="2">
@@ -25655,10 +25770,10 @@
         <v>449</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>726</v>
+        <v>747</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" t="s" s="2">
@@ -25762,10 +25877,10 @@
         <v>449</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" t="s" s="2">
@@ -25773,7 +25888,7 @@
       </c>
       <c r="F203" s="2"/>
       <c r="G203" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H203" t="s" s="2">
         <v>45</v>
@@ -25791,10 +25906,10 @@
         <v>46</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>177</v>
@@ -25847,10 +25962,10 @@
         <v>38</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI203" t="s" s="2">
         <v>45</v>
@@ -25867,10 +25982,10 @@
         <v>449</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" t="s" s="2">
@@ -25896,10 +26011,10 @@
         <v>80</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>208</v>
@@ -25928,13 +26043,13 @@
         <v>38</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>733</v>
+        <v>38</v>
       </c>
       <c r="AA204" t="s" s="2">
-        <v>734</v>
+        <v>38</v>
       </c>
       <c r="AB204" t="s" s="2">
         <v>38</v>
@@ -25952,7 +26067,7 @@
         <v>38</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>39</v>
@@ -25969,13 +26084,13 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>29</v>
+        <v>754</v>
       </c>
       <c r="C205" t="s" s="2">
-        <v>29</v>
+        <v>754</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" t="s" s="2">
@@ -25986,7 +26101,7 @@
         <v>39</v>
       </c>
       <c r="H205" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I205" t="s" s="2">
         <v>38</v>
@@ -25998,15 +26113,17 @@
         <v>38</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>29</v>
+        <v>755</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O205" s="2"/>
+        <v>756</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P205" s="2"/>
       <c r="Q205" t="s" s="2">
         <v>38</v>
@@ -26055,30 +26172,30 @@
         <v>38</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>29</v>
+        <v>754</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK205" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>44</v>
+        <v>757</v>
       </c>
       <c r="C206" t="s" s="2">
-        <v>44</v>
+        <v>757</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" t="s" s="2">
@@ -26089,7 +26206,7 @@
         <v>39</v>
       </c>
       <c r="H206" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I206" t="s" s="2">
         <v>38</v>
@@ -26101,13 +26218,13 @@
         <v>38</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>47</v>
+        <v>758</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>48</v>
+        <v>759</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -26158,30 +26275,30 @@
         <v>38</v>
       </c>
       <c r="AG206" t="s" s="2">
-        <v>49</v>
+        <v>757</v>
       </c>
       <c r="AH206" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK206" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>50</v>
+        <v>760</v>
       </c>
       <c r="C207" t="s" s="2">
-        <v>50</v>
+        <v>760</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26192,7 +26309,7 @@
         <v>39</v>
       </c>
       <c r="H207" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I207" t="s" s="2">
         <v>38</v>
@@ -26204,13 +26321,13 @@
         <v>38</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -26249,53 +26366,53 @@
         <v>38</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD207" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE207" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>57</v>
+        <v>761</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>57</v>
+        <v>761</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H208" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I208" t="s" s="2">
         <v>38</v>
@@ -26307,16 +26424,16 @@
         <v>38</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="O208" t="s" s="2">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="P208" s="2"/>
       <c r="Q208" t="s" s="2">
@@ -26324,7 +26441,7 @@
       </c>
       <c r="R208" s="2"/>
       <c r="S208" t="s" s="2">
-        <v>735</v>
+        <v>38</v>
       </c>
       <c r="T208" t="s" s="2">
         <v>38</v>
@@ -26354,74 +26471,78 @@
         <v>38</v>
       </c>
       <c r="AC208" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD208" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE208" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG208" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>62</v>
+        <v>762</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>62</v>
+        <v>762</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>737</v>
+        <v>51</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="O209" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P209" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="Q209" t="s" s="2">
         <v>38</v>
       </c>
@@ -26469,30 +26590,30 @@
         <v>38</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>29</v>
+        <v>763</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>29</v>
+        <v>763</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
@@ -26503,7 +26624,7 @@
         <v>39</v>
       </c>
       <c r="H210" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I210" t="s" s="2">
         <v>38</v>
@@ -26515,15 +26636,17 @@
         <v>38</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>29</v>
+        <v>764</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="O210" s="2"/>
+        <v>765</v>
+      </c>
+      <c r="O210" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P210" s="2"/>
       <c r="Q210" t="s" s="2">
         <v>38</v>
@@ -26572,30 +26695,30 @@
         <v>38</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>29</v>
+        <v>763</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>480</v>
+        <v>449</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>44</v>
+        <v>766</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>44</v>
+        <v>766</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -26618,15 +26741,17 @@
         <v>38</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>47</v>
+        <v>767</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="O211" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="O211" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P211" s="2"/>
       <c r="Q211" t="s" s="2">
         <v>38</v>
@@ -26651,13 +26776,13 @@
         <v>38</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>38</v>
+        <v>769</v>
       </c>
       <c r="AA211" t="s" s="2">
-        <v>38</v>
+        <v>770</v>
       </c>
       <c r="AB211" t="s" s="2">
         <v>38</v>
@@ -26675,7 +26800,7 @@
         <v>38</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>49</v>
+        <v>766</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>39</v>
@@ -26684,21 +26809,21 @@
         <v>45</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -26709,7 +26834,7 @@
         <v>39</v>
       </c>
       <c r="H212" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I212" t="s" s="2">
         <v>38</v>
@@ -26721,13 +26846,13 @@
         <v>38</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M212" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>52</v>
+        <v>470</v>
       </c>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -26766,19 +26891,19 @@
         <v>38</v>
       </c>
       <c r="AC212" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD212" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE212" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG212" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH212" t="s" s="2">
         <v>39</v>
@@ -26795,13 +26920,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -26809,7 +26934,7 @@
       </c>
       <c r="F213" s="2"/>
       <c r="G213" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>45</v>
@@ -26824,24 +26949,22 @@
         <v>38</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N213" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O213" s="2"/>
       <c r="P213" s="2"/>
       <c r="Q213" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R213" s="2"/>
       <c r="S213" t="s" s="2">
-        <v>738</v>
+        <v>38</v>
       </c>
       <c r="T213" t="s" s="2">
         <v>38</v>
@@ -26883,10 +27006,10 @@
         <v>38</v>
       </c>
       <c r="AG213" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI213" t="s" s="2">
         <v>45</v>
@@ -26900,13 +27023,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
@@ -26917,7 +27040,7 @@
         <v>39</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>38</v>
@@ -26929,13 +27052,13 @@
         <v>38</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>405</v>
+        <v>51</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
@@ -26974,42 +27097,42 @@
         <v>38</v>
       </c>
       <c r="AC214" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD214" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE214" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ214" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK214" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>340</v>
+        <v>467</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27017,10 +27140,10 @@
       </c>
       <c r="F215" s="2"/>
       <c r="G215" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H215" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I215" t="s" s="2">
         <v>38</v>
@@ -27032,22 +27155,24 @@
         <v>38</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O215" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O215" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R215" s="2"/>
       <c r="S215" t="s" s="2">
-        <v>38</v>
+        <v>771</v>
       </c>
       <c r="T215" t="s" s="2">
         <v>38</v>
@@ -27089,30 +27214,30 @@
         <v>38</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>340</v>
+        <v>467</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27135,13 +27260,13 @@
         <v>38</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>46</v>
+        <v>773</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N216" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -27192,7 +27317,7 @@
         <v>38</v>
       </c>
       <c r="AG216" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH216" t="s" s="2">
         <v>39</v>
@@ -27201,21 +27326,21 @@
         <v>45</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK216" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27226,7 +27351,7 @@
         <v>39</v>
       </c>
       <c r="H217" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I217" t="s" s="2">
         <v>38</v>
@@ -27238,13 +27363,13 @@
         <v>38</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M217" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>52</v>
+        <v>483</v>
       </c>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -27283,19 +27408,19 @@
         <v>38</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD217" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE217" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG217" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH217" t="s" s="2">
         <v>39</v>
@@ -27312,13 +27437,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27326,7 +27451,7 @@
       </c>
       <c r="F218" s="2"/>
       <c r="G218" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>45</v>
@@ -27341,24 +27466,22 @@
         <v>38</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N218" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O218" s="2"/>
       <c r="P218" s="2"/>
       <c r="Q218" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R218" s="2"/>
       <c r="S218" t="s" s="2">
-        <v>740</v>
+        <v>38</v>
       </c>
       <c r="T218" t="s" s="2">
         <v>38</v>
@@ -27400,10 +27523,10 @@
         <v>38</v>
       </c>
       <c r="AG218" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>45</v>
@@ -27417,13 +27540,13 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>340</v>
+        <v>480</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27434,7 +27557,7 @@
         <v>39</v>
       </c>
       <c r="H219" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I219" t="s" s="2">
         <v>38</v>
@@ -27446,13 +27569,13 @@
         <v>38</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -27491,42 +27614,42 @@
         <v>38</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD219" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE219" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG219" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH219" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI219" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ219" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27534,10 +27657,10 @@
       </c>
       <c r="F220" s="2"/>
       <c r="G220" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H220" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I220" t="s" s="2">
         <v>38</v>
@@ -27549,22 +27672,24 @@
         <v>38</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O220" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="P220" s="2"/>
       <c r="Q220" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R220" s="2"/>
       <c r="S220" t="s" s="2">
-        <v>38</v>
+        <v>774</v>
       </c>
       <c r="T220" t="s" s="2">
         <v>38</v>
@@ -27606,30 +27731,30 @@
         <v>38</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AI220" t="s" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -27652,13 +27777,13 @@
         <v>38</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
@@ -27709,7 +27834,7 @@
         <v>38</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>39</v>
@@ -27718,21 +27843,21 @@
         <v>45</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK221" t="s" s="2">
-        <v>38</v>
+        <v>66</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -27743,7 +27868,7 @@
         <v>39</v>
       </c>
       <c r="H222" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I222" t="s" s="2">
         <v>38</v>
@@ -27755,13 +27880,13 @@
         <v>38</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M222" t="s" s="2">
         <v>29</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
@@ -27800,19 +27925,19 @@
         <v>38</v>
       </c>
       <c r="AC222" t="s" s="2">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AD222" t="s" s="2">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="AE222" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>39</v>
@@ -27829,13 +27954,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -27843,7 +27968,7 @@
       </c>
       <c r="F223" s="2"/>
       <c r="G223" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>45</v>
@@ -27858,24 +27983,22 @@
         <v>38</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="N223" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="O223" s="2"/>
       <c r="P223" s="2"/>
       <c r="Q223" t="s" s="2">
         <v>38</v>
       </c>
       <c r="R223" s="2"/>
       <c r="S223" t="s" s="2">
-        <v>743</v>
+        <v>38</v>
       </c>
       <c r="T223" t="s" s="2">
         <v>38</v>
@@ -27917,10 +28040,10 @@
         <v>38</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AI223" t="s" s="2">
         <v>45</v>
@@ -27934,13 +28057,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -27951,7 +28074,7 @@
         <v>39</v>
       </c>
       <c r="H224" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I224" t="s" s="2">
         <v>38</v>
@@ -27963,13 +28086,13 @@
         <v>38</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N224" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
@@ -28008,30 +28131,755 @@
         <v>38</v>
       </c>
       <c r="AC224" t="s" s="2">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AD224" t="s" s="2">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="AE224" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI224" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ224" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AK224" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L225" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M225" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N225" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O225" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P225" s="2"/>
+      <c r="Q225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R225" s="2"/>
+      <c r="S225" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="T225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG225" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI225" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ225" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK225" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H226" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L226" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R226" s="2"/>
+      <c r="S226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF226" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG226" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH226" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI226" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ226" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK226" t="s" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L227" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R227" s="2"/>
+      <c r="S227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF227" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG227" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AH227" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI227" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ227" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK227" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B228" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F228" s="2"/>
+      <c r="G228" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H228" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L228" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M228" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R228" s="2"/>
+      <c r="S228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG228" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH228" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI228" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ228" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK228" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C229" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F229" s="2"/>
+      <c r="G229" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H229" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L229" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M229" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R229" s="2"/>
+      <c r="S229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC229" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD229" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE229" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF229" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG229" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH229" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI229" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ229" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK229" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C230" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F230" s="2"/>
+      <c r="G230" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H230" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L230" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M230" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O230" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P230" s="2"/>
+      <c r="Q230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R230" s="2"/>
+      <c r="S230" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="T230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG230" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH230" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI230" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ230" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK230" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C231" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F231" s="2"/>
+      <c r="G231" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H231" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="L231" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="M231" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N231" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R231" s="2"/>
+      <c r="S231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF231" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG231" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AH231" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI231" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ231" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK231" t="s" s="2">
         <v>66</v>
       </c>
     </row>

--- a/ig/sd-correction-slicing-condition/all-profiles.xlsx
+++ b/ig/sd-correction-slicing-condition/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T14:17:53+00:00</t>
+    <t>2023-10-19T15:00:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1547,6 +1547,10 @@
     <t>Allows identification of the research study as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
     <t>Slicing pour les différents identifiants de l'essai clinique</t>
   </si>
   <si>
@@ -1865,11 +1869,8 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t xml:space="preserve">value:use}
-</t>
-  </si>
-  <si>
-    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel</t>
+    <t xml:space="preserve">Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel.
+Ainsi la slice medDRACondition contient un code meddra, la slice diseaseCondition contient un texte libre. </t>
   </si>
   <si>
     <t>ResearchStudy.condition:medDRACondition</t>
@@ -4672,7 +4673,7 @@
     <col min="27" max="27" width="75.2734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.08203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="244.3984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="244.98046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -18689,10 +18690,10 @@
         <v>38</v>
       </c>
       <c r="AC134" t="s" s="2">
-        <v>38</v>
+        <v>492</v>
       </c>
       <c r="AD134" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AE134" t="s" s="2">
         <v>38</v>
@@ -18721,13 +18722,13 @@
         <v>449</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>488</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E135" t="s" s="2">
         <v>38</v>
@@ -18752,7 +18753,7 @@
         <v>146</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N135" t="s" s="2">
         <v>490</v>
@@ -18828,10 +18829,10 @@
         <v>449</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -18931,10 +18932,10 @@
         <v>449</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -19036,10 +19037,10 @@
         <v>449</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -19047,7 +19048,7 @@
       </c>
       <c r="F138" s="2"/>
       <c r="G138" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>45</v>
@@ -19065,16 +19066,16 @@
         <v>112</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P138" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q138" t="s" s="2">
         <v>38</v>
@@ -19084,7 +19085,7 @@
         <v>38</v>
       </c>
       <c r="T138" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="U138" t="s" s="2">
         <v>38</v>
@@ -19102,10 +19103,10 @@
         <v>81</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AA138" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB138" t="s" s="2">
         <v>38</v>
@@ -19123,7 +19124,7 @@
         <v>38</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>39</v>
@@ -19143,10 +19144,10 @@
         <v>449</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -19172,16 +19173,16 @@
         <v>80</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P139" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q139" t="s" s="2">
         <v>38</v>
@@ -19209,10 +19210,10 @@
         <v>210</v>
       </c>
       <c r="Z139" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA139" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AB139" t="s" s="2">
         <v>38</v>
@@ -19230,7 +19231,7 @@
         <v>38</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>39</v>
@@ -19250,10 +19251,10 @@
         <v>449</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -19279,16 +19280,16 @@
         <v>58</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O140" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P140" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q140" t="s" s="2">
         <v>38</v>
@@ -19301,7 +19302,7 @@
         <v>38</v>
       </c>
       <c r="U140" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V140" t="s" s="2">
         <v>38</v>
@@ -19337,7 +19338,7 @@
         <v>38</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>39</v>
@@ -19357,10 +19358,10 @@
         <v>449</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -19386,13 +19387,13 @@
         <v>46</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O141" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P141" s="2"/>
       <c r="Q141" t="s" s="2">
@@ -19406,7 +19407,7 @@
         <v>38</v>
       </c>
       <c r="U141" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V141" t="s" s="2">
         <v>38</v>
@@ -19442,7 +19443,7 @@
         <v>38</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>39</v>
@@ -19462,10 +19463,10 @@
         <v>449</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -19491,10 +19492,10 @@
         <v>225</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>228</v>
@@ -19547,7 +19548,7 @@
         <v>38</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>39</v>
@@ -19567,10 +19568,10 @@
         <v>449</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -19596,13 +19597,13 @@
         <v>405</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
@@ -19652,7 +19653,7 @@
         <v>38</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>39</v>
@@ -19672,13 +19673,13 @@
         <v>449</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>488</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E144" t="s" s="2">
         <v>38</v>
@@ -19703,7 +19704,7 @@
         <v>146</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N144" t="s" s="2">
         <v>490</v>
@@ -19779,10 +19780,10 @@
         <v>449</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -19882,10 +19883,10 @@
         <v>449</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19987,10 +19988,10 @@
         <v>449</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -19998,7 +19999,7 @@
       </c>
       <c r="F147" s="2"/>
       <c r="G147" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>45</v>
@@ -20016,16 +20017,16 @@
         <v>112</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P147" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>38</v>
@@ -20035,7 +20036,7 @@
         <v>38</v>
       </c>
       <c r="T147" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="U147" t="s" s="2">
         <v>38</v>
@@ -20053,10 +20054,10 @@
         <v>81</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AA147" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AB147" t="s" s="2">
         <v>38</v>
@@ -20074,7 +20075,7 @@
         <v>38</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>39</v>
@@ -20094,10 +20095,10 @@
         <v>449</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
@@ -20123,16 +20124,16 @@
         <v>80</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P148" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q148" t="s" s="2">
         <v>38</v>
@@ -20160,10 +20161,10 @@
         <v>210</v>
       </c>
       <c r="Z148" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AA148" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AB148" t="s" s="2">
         <v>38</v>
@@ -20181,7 +20182,7 @@
         <v>38</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>39</v>
@@ -20201,10 +20202,10 @@
         <v>449</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
@@ -20230,16 +20231,16 @@
         <v>58</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O149" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P149" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q149" t="s" s="2">
         <v>38</v>
@@ -20252,7 +20253,7 @@
         <v>38</v>
       </c>
       <c r="U149" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V149" t="s" s="2">
         <v>38</v>
@@ -20288,7 +20289,7 @@
         <v>38</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>39</v>
@@ -20308,10 +20309,10 @@
         <v>449</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" t="s" s="2">
@@ -20337,13 +20338,13 @@
         <v>46</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P150" s="2"/>
       <c r="Q150" t="s" s="2">
@@ -20357,7 +20358,7 @@
         <v>38</v>
       </c>
       <c r="U150" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V150" t="s" s="2">
         <v>38</v>
@@ -20393,7 +20394,7 @@
         <v>38</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>39</v>
@@ -20413,10 +20414,10 @@
         <v>449</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
@@ -20442,10 +20443,10 @@
         <v>225</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>228</v>
@@ -20498,7 +20499,7 @@
         <v>38</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>39</v>
@@ -20518,10 +20519,10 @@
         <v>449</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" t="s" s="2">
@@ -20547,13 +20548,13 @@
         <v>405</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P152" s="2"/>
       <c r="Q152" t="s" s="2">
@@ -20603,7 +20604,7 @@
         <v>38</v>
       </c>
       <c r="AG152" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AH152" t="s" s="2">
         <v>39</v>
@@ -20623,10 +20624,10 @@
         <v>449</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" t="s" s="2">
@@ -20652,10 +20653,10 @@
         <v>46</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>177</v>
@@ -20708,7 +20709,7 @@
         <v>38</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>39</v>
@@ -20728,10 +20729,10 @@
         <v>449</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C154" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20754,13 +20755,13 @@
         <v>95</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>241</v>
@@ -20813,7 +20814,7 @@
         <v>38</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>39</v>
@@ -20833,14 +20834,14 @@
         <v>449</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F155" s="2"/>
       <c r="G155" t="s" s="2">
@@ -20859,19 +20860,19 @@
         <v>95</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>241</v>
       </c>
       <c r="P155" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q155" t="s" s="2">
         <v>38</v>
@@ -20920,7 +20921,7 @@
         <v>38</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>39</v>
@@ -20940,10 +20941,10 @@
         <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20969,10 +20970,10 @@
         <v>112</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>177</v>
@@ -21004,10 +21005,10 @@
         <v>81</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AA156" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AB156" t="s" s="2">
         <v>38</v>
@@ -21025,7 +21026,7 @@
         <v>38</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>45</v>
@@ -21045,10 +21046,10 @@
         <v>449</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
@@ -21074,10 +21075,10 @@
         <v>80</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>208</v>
@@ -21109,10 +21110,10 @@
         <v>210</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AA157" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AB157" t="s" s="2">
         <v>38</v>
@@ -21130,7 +21131,7 @@
         <v>38</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>39</v>
@@ -21150,10 +21151,10 @@
         <v>449</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -21179,10 +21180,10 @@
         <v>80</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>208</v>
@@ -21215,7 +21216,7 @@
       </c>
       <c r="Z158" s="2"/>
       <c r="AA158" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AB158" t="s" s="2">
         <v>38</v>
@@ -21233,7 +21234,7 @@
         <v>38</v>
       </c>
       <c r="AG158" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AH158" t="s" s="2">
         <v>39</v>
@@ -21253,10 +21254,10 @@
         <v>449</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
@@ -21282,10 +21283,10 @@
         <v>80</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>208</v>
@@ -21318,7 +21319,7 @@
       </c>
       <c r="Z159" s="2"/>
       <c r="AA159" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AB159" t="s" s="2">
         <v>38</v>
@@ -21336,7 +21337,7 @@
         <v>38</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>39</v>
@@ -21356,10 +21357,10 @@
         <v>449</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -21385,10 +21386,10 @@
         <v>80</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>208</v>
@@ -21420,7 +21421,7 @@
         <v>172</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>38</v>
@@ -21441,7 +21442,7 @@
         <v>38</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>39</v>
@@ -21461,10 +21462,10 @@
         <v>449</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
@@ -21490,10 +21491,10 @@
         <v>80</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>208</v>
@@ -21525,16 +21526,16 @@
         <v>172</v>
       </c>
       <c r="Z161" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA161" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AB161" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AC161" t="s" s="2">
-        <v>597</v>
+        <v>38</v>
       </c>
       <c r="AD161" t="s" s="2">
         <v>598</v>
@@ -21546,7 +21547,7 @@
         <v>55</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>39</v>
@@ -21569,7 +21570,7 @@
         <v>599</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>600</v>
@@ -21600,7 +21601,7 @@
         <v>601</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>208</v>
@@ -21632,10 +21633,10 @@
         <v>172</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA162" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AB162" t="s" s="2">
         <v>38</v>
@@ -21653,7 +21654,7 @@
         <v>38</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>39</v>
@@ -22839,7 +22840,7 @@
         <v>658</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>659</v>
@@ -22870,7 +22871,7 @@
         <v>660</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>208</v>
@@ -22902,10 +22903,10 @@
         <v>172</v>
       </c>
       <c r="Z174" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AA174" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AB174" t="s" s="2">
         <v>38</v>
@@ -22923,7 +22924,7 @@
         <v>38</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>39</v>
